--- a/validation/selectedPapers.xlsx
+++ b/validation/selectedPapers.xlsx
@@ -472,15 +472,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spot pricing in the Cloud ecosystem: A comparative investigation</t>
+          <t>A systematic literature review and taxonomy of modern code review</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -488,145 +488,145 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="F2" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G2" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A systematic literature review on software measurement programs</t>
+          <t>A systematic literature review of how mutation testing supports quality assurance processes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Software Testing Verification and Reliability</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="F3" t="n">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="G3" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Requirements for product derivation support: Results from a systematic literature review and an expert survey</t>
+          <t>A Systematic Literature Review of iStar extensions</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="G4" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A systematic literature review on SOA migration</t>
+          <t>A systematic literature review of software visualization evaluation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Journal of Software: Evolution and Process</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G5" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Systematic literature review of domain-oriented specification techniques</t>
+          <t>A systematic literature review of test breakage prevention and repair techniques</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="G6" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Training students in evidence-based software engineering and systematic reviews: a systematic review and empirical study</t>
+          <t>A systematic literature review on crowdsourcing in software engineering</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Empirical Software Engineering</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="G7" t="n">
         <v>2018</v>
@@ -634,42 +634,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Variability in software systems-A systematic literature review</t>
+          <t>A systematic literature review on SOA migration</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Software Engineering</t>
+          <t>Journal of Software: Evolution and Process</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
         <v>2000</v>
       </c>
       <c r="G8" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>An extensive systematic review on the Model-Driven Development of secure systems</t>
+          <t>A systematic literature review on software measurement programs</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="G9" t="n">
         <v>2014</v>
@@ -688,96 +688,96 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meta-analysis for families of experiments in software engineering: a systematic review and reproducibility and validity assessment</t>
+          <t>A systematic literature review on Technical Debt prioritization: Strategies, processes, factors, and tools</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Empirical Software Engineering</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="G10" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Approaches to manage the user experience process in Agile software development: A systematic literature review</t>
+          <t>A Taxonomy and Qualitative Comparison of Program Analysis Techniques for Security Assessment of Android Software</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>IEEE Transactions on Software Engineering</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="F11" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G11" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A systematic literature review of how mutation testing supports quality assurance processes</t>
+          <t>An extensive systematic review on the Model-Driven Development of secure systems</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Software Testing Verification and Reliability</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="F12" t="n">
-        <v>1984</v>
+        <v>2002</v>
       </c>
       <c r="G12" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Time pressure in software engineering: A systematic review</t>
+          <t>Approaches to manage the user experience process in Agile software development: A systematic literature review</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -785,53 +785,53 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n">
-        <v>1984</v>
+        <v>2007</v>
       </c>
       <c r="G13" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Software project scheduling problem in the context of search-based software engineering: A systematic review</t>
+          <t>Business process maturity models: A systematic literature review</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F14" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="G14" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A Taxonomy and Qualitative Comparison of Program Analysis Techniques for Security Assessment of Android Software</t>
+          <t>Comparing Methods for Large-Scale Agile Software Development: A Systematic Literature Review</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -839,26 +839,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="F15" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="G15" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Business process maturity models: A systematic literature review</t>
+          <t>Empirical studies of agile software development: A systematic review</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -866,67 +866,67 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
         <v>2001</v>
       </c>
       <c r="G16" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Empirical studies of agile software development: A systematic review</t>
+          <t>Meta-analysis for families of experiments in software engineering: a systematic review and reproducibility and validity assessment</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Empirical Software Engineering</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>2001</v>
       </c>
       <c r="G17" t="n">
-        <v>2005</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A systematic literature review on crowdsourcing in software engineering</t>
+          <t>Multicloud service composition: A survey of current approaches and issues</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Journal of Software: Evolution and Process</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="G18" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="19">
@@ -958,96 +958,96 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Comparing Methods for Large-Scale Agile Software Development: A Systematic Literature Review</t>
+          <t>Requirements for product derivation support: Results from a systematic literature review and an expert survey</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Software Engineering</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F20" t="n">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="G20" t="n">
-        <v>2019</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multicloud service composition: A survey of current approaches and issues</t>
+          <t>Software project scheduling problem in the context of search-based software engineering: A systematic review</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G21" t="n">
         <v>2018</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Journal of Software: Evolution and Process</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>21</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2013</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A systematic literature review of test breakage prevention and repair techniques</t>
+          <t>Spot pricing in the Cloud ecosystem: A comparative investigation</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F22" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G22" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A Systematic Literature Review of iStar extensions</t>
+          <t>Systematic literature review of domain-oriented specification techniques</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1055,94 +1055,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G23" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A systematic literature review on Technical Debt prioritization: Strategies, processes, factors, and tools</t>
+          <t>Time pressure in software engineering: A systematic review</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F24" t="n">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="G24" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A systematic literature review of software visualization evaluation</t>
+          <t>Training students in evidence-based software engineering and systematic reviews: a systematic review and empirical study</t>
         </is>
       </c>
       <c r="C25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>14</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G25" t="n">
         <v>2018</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Journal of Systems and Software</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>181</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2002</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A systematic literature review and taxonomy of modern code review</t>
+          <t>Variability in software systems-A systematic literature review</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>IEEE Transactions on Software Engineering</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="F26" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="G26" t="n">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>

--- a/validation/selectedPapers.xlsx
+++ b/validation/selectedPapers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>The latest year of the reviewed papers</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>research_question</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>search_string</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +506,8 @@
       <c r="G2" t="n">
         <v>2019</v>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -523,6 +535,8 @@
       <c r="G3" t="n">
         <v>2015</v>
       </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -550,6 +564,8 @@
       <c r="G4" t="n">
         <v>2016</v>
       </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +593,8 @@
       <c r="G5" t="n">
         <v>2017</v>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -604,6 +622,8 @@
       <c r="G6" t="n">
         <v>2018</v>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -631,6 +651,8 @@
       <c r="G7" t="n">
         <v>2018</v>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -658,6 +680,8 @@
       <c r="G8" t="n">
         <v>2013</v>
       </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -685,6 +709,8 @@
       <c r="G9" t="n">
         <v>2014</v>
       </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -712,6 +738,8 @@
       <c r="G10" t="n">
         <v>2019</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -739,6 +767,8 @@
       <c r="G11" t="n">
         <v>2015</v>
       </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -766,6 +796,8 @@
       <c r="G12" t="n">
         <v>2014</v>
       </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -793,6 +825,8 @@
       <c r="G13" t="n">
         <v>2019</v>
       </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -820,6 +854,8 @@
       <c r="G14" t="n">
         <v>2014</v>
       </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -847,6 +883,8 @@
       <c r="G15" t="n">
         <v>2019</v>
       </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -874,6 +912,8 @@
       <c r="G16" t="n">
         <v>2005</v>
       </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -901,6 +941,8 @@
       <c r="G17" t="n">
         <v>2016</v>
       </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -928,6 +970,8 @@
       <c r="G18" t="n">
         <v>2017</v>
       </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -955,6 +999,8 @@
       <c r="G19" t="n">
         <v>2011</v>
       </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -982,6 +1028,8 @@
       <c r="G20" t="n">
         <v>2007</v>
       </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1009,6 +1057,8 @@
       <c r="G21" t="n">
         <v>2018</v>
       </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1036,6 +1086,8 @@
       <c r="G22" t="n">
         <v>2015</v>
       </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1063,6 +1115,8 @@
       <c r="G23" t="n">
         <v>2019</v>
       </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1090,6 +1144,8 @@
       <c r="G24" t="n">
         <v>2017</v>
       </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1117,6 +1173,8 @@
       <c r="G25" t="n">
         <v>2018</v>
       </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1144,6 +1202,8 @@
       <c r="G26" t="n">
         <v>2011</v>
       </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/validation/selectedPapers.xlsx
+++ b/validation/selectedPapers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,102 +482,102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A systematic literature review and taxonomy of modern code review</t>
+          <t>A Bayesian networks-based approach to assess and improve the teamwork quality of agile teams</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="G2" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A systematic literature review of how mutation testing supports quality assurance processes</t>
+          <t>A comparative study of software process improvement implementation success factors</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Software Testing Verification and Reliability</t>
+          <t>Journal of Software: Evolution and Process</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="G3" t="n">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A Systematic Literature Review of iStar extensions</t>
+          <t>A conceptual framework of challenges and solutions for managing global software maintenance</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Journal of Software: Evolution and Process</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="G4" t="n">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A systematic literature review of software visualization evaluation</t>
+          <t>A decade of code comment quality assessment: A systematic literature review</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -585,155 +585,155 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="G5" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A systematic literature review of test breakage prevention and repair techniques</t>
+          <t>A Hitchhiker's guide to statistical tests for assessing randomized algorithms in software engineering</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Software Testing Verification and Reliability</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F6" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="G6" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A systematic literature review on crowdsourcing in software engineering</t>
+          <t>A literature review on optimization techniques for adaptation planning in adaptive systems: State of the art and research directions</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="G7" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A systematic literature review on SOA migration</t>
+          <t>A literature-based framework of performance-related leadership interactions in ICT project teams</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Journal of Software: Evolution and Process</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F8" t="n">
-        <v>2000</v>
+        <v>1977</v>
       </c>
       <c r="G8" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A systematic literature review on software measurement programs</t>
+          <t>A practice-driven systematic review of dependency analysis solutions</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Empirical Software Engineering</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A systematic literature review on Technical Debt prioritization: Strategies, processes, factors, and tools</t>
+          <t>A review on the computation offloading approaches in mobile edge computing: A game-theoretic perspective</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Software - Practice and Experience</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F10" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="G10" t="n">
         <v>2019</v>
@@ -743,73 +743,73 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A Taxonomy and Qualitative Comparison of Program Analysis Techniques for Security Assessment of Android Software</t>
+          <t>A robust framework for cloud-based software development outsourcing factors using analytical hierarchy process</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Software Engineering</t>
+          <t>Journal of Software: Evolution and Process</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="F11" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G11" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>An extensive systematic review on the Model-Driven Development of secure systems</t>
+          <t>A survey of model transformation design patterns in practice</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="F12" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Approaches to manage the user experience process in Agile software development: A systematic literature review</t>
+          <t>A system-based view of blockchain governance</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -817,57 +817,57 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F13" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="G13" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Business process maturity models: A systematic literature review</t>
+          <t>A systematic literature review and taxonomy of modern code review</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="F14" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="G14" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Comparing Methods for Large-Scale Agile Software Development: A Systematic Literature Review</t>
+          <t>A Systematic Literature Review of Applications of the Physics of Notations</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -875,82 +875,82 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="F15" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G15" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Empirical studies of agile software development: A systematic review</t>
+          <t>A systematic literature review of blockchain and smart contract development: Techniques, tools, and open challenges</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F16" t="n">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="G16" t="n">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Meta-analysis for families of experiments in software engineering: a systematic review and reproducibility and validity assessment</t>
+          <t>A systematic literature review of how mutation testing supports quality assurance processes</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Empirical Software Engineering</t>
+          <t>Software Testing Verification and Reliability</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="F17" t="n">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="G17" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Multicloud service composition: A survey of current approaches and issues</t>
+          <t>A Systematic Literature Review of iStar extensions</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -958,32 +958,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Journal of Software: Evolution and Process</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="F18" t="n">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="G18" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>On evaluating commercial Cloud services: A systematic review</t>
+          <t>A systematic literature review of software quality cost research</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -991,53 +991,53 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F19" t="n">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="G19" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Requirements for product derivation support: Results from a systematic literature review and an expert survey</t>
+          <t>A systematic literature review of software visualization evaluation</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Information and Software Technology</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="F20" t="n">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="G20" t="n">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Software project scheduling problem in the context of search-based software engineering: A systematic review</t>
+          <t>A systematic literature review of test breakage prevention and repair techniques</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="G21" t="n">
         <v>2018</v>
@@ -1062,40 +1062,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Spot pricing in the Cloud ecosystem: A comparative investigation</t>
+          <t>A Systematic Literature Review on Bad Smells-5 W's: Which, When, What, Who, Where</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Journal of Systems and Software</t>
+          <t>IEEE Transactions on Software Engineering</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>61</v>
+        <v>351</v>
       </c>
       <c r="F22" t="n">
-        <v>2010</v>
+        <v>1992</v>
       </c>
       <c r="G22" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Systematic literature review of domain-oriented specification techniques</t>
+          <t>A systematic literature review on benchmarks for evaluating debugging approaches</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1107,103 +1107,4308 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F23" t="n">
-        <v>1989</v>
+        <v>2011</v>
       </c>
       <c r="G23" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Time pressure in software engineering: A systematic review</t>
+          <t>A systematic literature review on blockchain governance</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>37</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G24" t="n">
         <v>2020</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Information and Software Technology</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>102</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1984</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2017</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Training students in evidence-based software engineering and systematic reviews: a systematic review and empirical study</t>
+          <t>A systematic literature review on counterexample explanation</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Empirical Software Engineering</t>
+          <t>Information and Software Technology</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F25" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="G25" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Variability in software systems-A systematic literature review</t>
+          <t>A systematic literature review on crowdsourcing in software engineering</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Software Engineering</t>
+          <t>Journal of Systems and Software</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="G26" t="n">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A Systematic Literature Review on Fault Prediction Performance in Software Engineering</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>208</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A systematic literature review on methods that handle multiple quality attributes in architecture-based self-adaptive systems</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>54</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A Systematic Literature Review on prioritizing software test cases using Markov chains</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A systematic literature review on semantic web enabled software testing</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>52</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A systematic literature review on SOA migration</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A systematic literature review on software measurement programs</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>65</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A systematic literature review on Technical Debt prioritization: Strategies, processes, factors, and tools</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>44</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A systematic literature review on the semi-automatic configuration of extended product lines</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>66</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A Systematic Literature Review on the Use of Deep Learning in Software Engineering Research</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ACM Transactions on Software Engineering and Methodology</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>128</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A systematic literature review on trust in the software ecosystem</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>112</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A systematic literature review: Opinion mining studies from mobile app store user reviews</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>24</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>A systematic review and an expert survey on capabilities supporting multi product lines</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>37</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>A systematic review of domain analysis solutions for product lines</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>89</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A systematic review of research on open source software in commercial software product development</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>23</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>A systematic review of software architecture visualization techniques</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>53</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>A systematic review of theory use in studies investigating the motivations of software engineers</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ACM Transactions on Software Engineering and Methodology</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>92</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1982</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>A systematic review of UML model consistency management</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>44</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>A systematic review on search based mutation testing</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>69</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>A systematic review on the code smell effect</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>64</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>A systematic review on the engineering of software for ubiquitous systems</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>128</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>A Taxonomy and Qualitative Comparison of Program Analysis Techniques for Security Assessment of Android Software</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>336</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A taxonomy of service identification approaches for legacy software systems modernization</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>41</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Agile methods tailoring - A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>56</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Agile practices for global software development vendors in the development of green and sustainable software</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>53</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Agile, Web Engineering and Capability Maturity Model Integration: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Aligning software engineering education with industrial needs: A meta-analysis</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>35</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1995</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>An extensive systematic review on the Model-Driven Development of secure systems</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>124</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>An investigation into the best practices for the successful design and implementation of lightweight software process assessment methods: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>29</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1987</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Analysing app reviews for software engineering: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>182</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Analytic hierarchy process-based prioritization framework for vendor's reliability challenges in global software development</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>89</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Analyzing an automotive testing process with evidence-based software engineering</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>48</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Analyzing and documenting the systematic review results of software testing ontologies</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Analyzing impact of experience curve on ROI in the software product line adoption process</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>15</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Antecedents to IT personnel's intentions to leave: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>72</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Approaches for the combined use of risk analysis and testing: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>International Journal on Software Tools for Technology Transfer</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>32</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Approaches to manage the user experience process in Agile software development: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>49</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Approaches to strategic alignment of software process improvement: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>30</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Architecting cloud-enabled systems: a systematic survey of challenges and solutions</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Software - Practice and Experience</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>133</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Architectural Design Space for Modelling and Simulation as a Service: A Review</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Architectural Tactics for Big Data Cybersecurity Analytics Systems: A Review</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>74</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Architectural tactics for cyber-foraging: Results of a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>58</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Behavioral software engineering: A definition and systematic literature review</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>250</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Brain and autonomic nervous system activity measurement in software engineering: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>89</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Business process maturity models: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>61</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Capturing software architecture knowledge for pattern-driven design</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>232</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Challenges and recommended practices for software architecting in global software development</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>55</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Challenges in the development of green and sustainable software for software multisourcing vendors: Findings from a systematic literature review and industrial survey</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>54</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Characterizing testing methods for context-aware software systems: Results from a quasi-systematic literature review</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>12</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Classification and comparison of architecture evolution reuse knowledge - A systematic review</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>32</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Closing the Gap between Software Engineering Education and Industrial Needs</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>IEEE Software</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>33</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1995</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Comparing Methods for Large-Scale Agile Software Development: A Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>191</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Continuous experimentation and the cyber–physical systems challenge: An overview of the literature and the industrial perspective</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Deep learning application on code clone detection: A review of current knowledge</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>21</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Definitions and approaches to model quality in model-based software development - A review of literature</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>40</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Deployment and communication patterns in microservice architectures: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>38</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Detecting functional and security-related issues in smart contracts: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Software - Practice and Experience</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>68</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Early software defect prediction: A systematic map and review</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>52</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Empirical evaluation of a decision support model for adopting software product line engineering</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Empirical evidence in global software engineering: A systematic review</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>59</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Empirical software product line engineering: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>62</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Empirical studies of agile software development: A systematic review</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>36</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Extracting reusable design decisions for UML-based domain-specific languages: A multi-method study</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>84</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Feature extraction approaches from natural language requirements for reuse in software product lines: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>13</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FM-CF: A framework for classifying feature model building approaches</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>31</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How have views on Software Quality differed over time? Research and practice viewpoints </t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>27</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Identification and measurement of Requirements Technical Debt in software development: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>66</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Identification and prioritization of security challenges of big data on cloud computing based on SLR: A fuzzy-TOPSIS analysis approach</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>103</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Inner source software development: Current thinking and an agenda for future research</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>37</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Integration between requirements engineering and safety analysis: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>57</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1994</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Intelligent software engineering in the context of agile software development: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>93</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Interaction-based creation and maintenance of continuously usable trace links between requirements and source code</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>28</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Investigation on test effort estimation of mobile applications: Systematic literature review and survey</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>49</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ITIL in small to medium-sized enterprises software companies: Towards an implementation sequence</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2008</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Knowledge management in software engineering: A systematic review of studied concepts, findings and research methods used</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>68</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Large-scale machine learning systems in real-world industrial settings: A review of challenges and solutions</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>72</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Learning software configuration spaces: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>70</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Leveraging creativity in requirements elicitation within agile software development: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>17</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Maintenance-related concerns for post-deployed Ethereum smart contract development: issues, techniques, and future challenges</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>131</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Managing architectural technical debt: A unified model and systematic literature review</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>42</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Maximizing integrative learning in software development teams: A systematic review of key drivers and future research agenda</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>32</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Meta-analysis for families of experiments in software engineering: a systematic review and reproducibility and validity assessment</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>13</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Model-driven architecture based testing: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>31</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Motivators for adopting social computing in global software development: An empirical study</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>36</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Multicloud service composition: A survey of current approaches and issues</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>21</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>On evaluating commercial Cloud services: A systematic review</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>82</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>On the use of artificial intelligence to deal with privacy in IoT systems: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>152</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2015</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>On the use of deep learning in software defect prediction</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>102</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Overcoming the equivalent mutant problem: A systematic literature review and a comparative experiment of second order mutation</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>22</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1979</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Perceived diversity in software engineering: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>131</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Product metrics for spreadsheets—A systematic review</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>37</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1988</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Program comprehension through reverse-engineered sequence diagrams: A systematic review</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>52</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1979</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Readiness model for DevOps implementation in software organizations</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>69</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Rebooting Research on Detecting Repackaged Android Apps: Literature Review and Benchmark</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>57</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Reporting Usability Defects: A Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>57</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Requirements for product derivation support: Results from a systematic literature review and an expert survey</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>118</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Requirements modeling languages for software product lines: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>54</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Requirements traceability technologies and technology transfer decision support: A systematic review</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>114</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Reusability affecting factors and software metrics for reusability: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Software - Practice and Experience</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>175</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Security assurance cases—state of the art of an emerging approach</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>51</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Server consolidation techniques in virtualized data centers of cloud environments: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Software - Practice and Experience</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>22</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2012</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Service Design Handover to user experience design – a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>41</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Similarity-based analyses on software applications: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>136</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Software architecture optimization methods: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>188</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Software architectures of the convergence of cloud computing and the Internet of Things: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>82</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Software component and the semantic Web: An in-depth content analysis and integration history</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>53</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Software ecosystems-A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>90</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Software effort estimation accuracy prediction of machine learning techniques: A systematic performance evaluation</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Software - Practice and Experience</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>35</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Software engineering process models for mobile app development: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>20</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2004</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Software integration in global software development: Challenges for GSD vendors</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>88</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Software product line scoping: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>58</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Software project scheduling problem in the context of search-based software engineering: A systematic review</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>37</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1998</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Software reliability modeling based on ISO/IEC SQuaRE</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>11</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Software test process improvement approaches: A systematic literature review and an industrial case study</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>13</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Software variability in service robotics</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>30</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Spot pricing in the Cloud ecosystem: A comparative investigation</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Stability in Software Engineering: Survey of the State-of-the-Art and Research Directions</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>166</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1977</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Success factors analysis for requirement elicitation in global software development paradigm: An empirical study</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>70</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Systematic literature review and empirical investigation of barriers to process improvement in global software development: Client–vendor perspective</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>85</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Systematic literature review and empirical investigation of motivators for requirements change management process in global software development</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>131</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Systematic literature review of domain-oriented specification techniques</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>53</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1989</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Systematic literature review of empirical studies on mental representations of programs</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>72</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1976</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Systematic literature review of ensemble effort estimation</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>24</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Systematic literature review of validation methods for AI systems</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>90</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Systematic literature review on software quality for AI-based software</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>29</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1988</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Task Scheduling in Big Data Platforms: A Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>586</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2008</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Test case selection and prioritization using machine learning: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>29</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Testing of adaptive and context-aware systems: approaches and challenges</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Software Testing Verification and Reliability</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>102</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>The effect of software engineers' personality traits on team climate and performance: A Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>35</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>The effects of continuous integration on software development: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>101</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>The Effects of Human Aspects on the Requirements Engineering Process: A Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>74</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>The effects of test driven development on internal quality, external quality and productivity: A systematic review</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>27</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>The kanban approach, between agility and leanness: a systematic review</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>37</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Threat analysis of software systems: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>38</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Time pressure in software engineering: A systematic review</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>102</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1984</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Toward the tools selection in model based system engineering for embedded systems - A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>61</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2008</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Towards a hybrid testing process unifying exploratory testing and scripted testing</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Journal of Software: Evolution and Process</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>22</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Towards innovation measurement in the software industry</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>204</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1972</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Towards pragmatic interoperability to support collaboration: A systematic review and mapping of the literature</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Information and Software Technology</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>13</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2006</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Training students in evidence-based software engineering and systematic reviews: a systematic review and empirical study</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>14</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>UML model refactoring: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Empirical Software Engineering</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>94</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Validating software metrics: A spectrum of philosophies</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>ACM Transactions on Software Engineering and Methodology</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>20</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2006</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Variability in software systems-A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Software Engineering</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>196</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Web application testing: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>95</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>What recommendation systems for software engineering recommend: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>43</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2003</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Why and how is Scrum being adapted in practice: A systematic review</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>925</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2002</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/validation/selectedPapers.xlsx
+++ b/validation/selectedPapers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodol\OneDrive\Documents\SE-ALL\SearchStringAI\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0947FDC8-956E-4B6F-B08D-4C66A7733830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D54B64-F7F2-4DE4-85CC-A62A48761F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -590,9 +590,6 @@
   </si>
   <si>
     <t>What factors, as identified in the informal literature review, have a positive impact on implementing SPI? What factors, as identified in the formal literature review, have a positive impact on implementing SPI? What factors, as identified in the empirical study, have a positive impact on implementing SPI? How are these factors related to the methodology used?</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>What are the challenges of managing software maintenance in globally distributed settings? How do software organizations mitigate these challenges?</t>
@@ -2240,6 +2237,62 @@
   <si>
     <t xml:space="preserve">RQ1: What are the inputs used by SIAs? RQ2: What are the processes followed by SIAs? RQ3: What are the outputs of SIAs? 
 RQ4: What is the usability of SIAs? </t>
+  </si>
+  <si>
+    <t>(service identification OR service mining OR service packaging) AND (migration OR modernization OR transformation OR re-engineering) AND (legacy OR existing systems OR Object-Oriented)</t>
+  </si>
+  <si>
+    <t>(agile AND practice AND select) OR
+(agile AND method AND tailoring) OR
+(scrum AND practice AND adoption) OR
+(scrum AND tailoring) OR
+(scrum AND practice AND select) OR
+(xp AND practice AND adoption) OR
+(xp AND tailoring) OR
+(xp AND practice AND select) OR
+(kanban AND practice AND adoption) OR
+(kanban AND tailoring) OR
+(kanban AND practice AND select) OR
+(lean AND practice AND adoption) OR
+(lean AND tailoring) OR
+(lean AND practice AND select) OR
+(fdd AND practice AND adoption) OR
+(fdd AND tailoring) OR
+(fdd AND practice AND select) OR
+(“feature driven development” AND practice AND adoption) OR
+(“feature driven development” AND tailoring) OR
+(“feature driven development” AND practice AND select)</t>
+  </si>
+  <si>
+    <t>RQ1	What are the methodological aspects of agile method tailoring research?
+RQ2	How practical has agile methods tailoring research been?
+RQ3	Which are the method tailoring criteria used for agile methods tailoring?</t>
+  </si>
+  <si>
+    <t>RQ1: What are the agile practices for the CSFs, as identified in the literature, to be adapted by the GSD vendors in the development of green and sustainable software?
+RQ2: What are the agile practices for the CSFs, as identified in the real-world practice, to be adapted by the GSD vendors in the development of green and sustainable software?</t>
+  </si>
+  <si>
+    <t>(“Green software” OR “Greener software” OR “Sustainable software” OR “Green software engineering”) AND (“Agile” OR “Agile methods” OR “green agile”) AND (“Practices” OR “Solutions”)</t>
+  </si>
+  <si>
+    <t>(Agile OR Agility OR Scrum OR "eXtreme Programming") AND (CMMI OR "Capability Maturity Model") AND (Web OR "Web Engineering")</t>
+  </si>
+  <si>
+    <t>RQ1: What is the relation between CMMI-DEV maturity levels and Agile methodologies in Web environments?
+RQ2: What evaluation criterion concludes that an Agile technique is compliant with certain goals of a CMMI-DEV process area in Web environments?
+RQ3: What experiments or case studies could validate an Agile approach to maturity models in Web environments?
+RQ4: What is the highest documented maturity level that can be reached using Agile approaches in Web environments?
+RQ5: How could Web specific characteristics be addressed through Agile methods so as to reach CMMI-DEV goals?</t>
+  </si>
+  <si>
+    <t>What types of data collection methods have been used in the studies? What curriculum models (bodies of knowledge) have been used to design the studies? Which SE skills (subjects) are the most important and which SE subjects are the least important for a typical software engineer in practice? What is the evidence for knowledge gaps (deficiencies) in different SE subjects? And what are the topics with the highest knowledge deficiencies? What is the evidence on the importance of soft skills? And to what extent are soft skills important, in addition to technical (“hard”) skills?What are the characteristics of the data sample? For example, what is the number of data points (e.g., participants, job advertisements) in the survey conducted by a given study? Which region (countries) are covered by the surveys? What educational recommendations are provided in each study? How do the findings of our meta-analysis (importance of SE skills, and knowledge gaps) compare to the findings of previous review papers (Radermacher, 2012; Radermacher and Walia, 2013; Aničić et al., 2017) (which had similar objectives), as discussed in Section 2?</t>
+  </si>
+  <si>
+    <t>(educational needs OR knowledge needs OR desired skills OR essential competencies OR knowledge requirements OR skill requirements) AND (software engineers OR software developers)</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2415,7 +2468,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2429,16 +2482,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2746,8 +2803,8 @@
   </sheetPr>
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2785,11 +2842,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>7</v>
@@ -2798,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
@@ -2882,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" t="s">
         <v>191</v>
-      </c>
-      <c r="K4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
@@ -2914,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
@@ -2966,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1">
@@ -2995,10 +3052,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" t="s">
         <v>195</v>
-      </c>
-      <c r="L8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -3030,10 +3087,10 @@
         <v>3</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1">
@@ -3062,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1">
@@ -3094,10 +3151,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
@@ -3129,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" t="s">
         <v>202</v>
-      </c>
-      <c r="K12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
@@ -3164,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
@@ -3199,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
@@ -3234,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
@@ -3269,13 +3326,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" t="s">
         <v>211</v>
-      </c>
-      <c r="L16" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1">
@@ -3304,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1">
@@ -3333,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1">
@@ -3477,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1">
@@ -3506,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1">
@@ -3570,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1">
@@ -3602,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
@@ -3634,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1">
@@ -3666,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1">
@@ -3698,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1">
@@ -3730,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
@@ -3762,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1">
@@ -3794,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1">
@@ -3829,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K35" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
@@ -3864,10 +3921,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
@@ -3899,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
@@ -3931,13 +3988,13 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J38" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38" t="s">
         <v>235</v>
-      </c>
-      <c r="K38" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
@@ -3969,10 +4026,10 @@
         <v>4</v>
       </c>
       <c r="J39" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="L39" t="s">
         <v>237</v>
-      </c>
-      <c r="L39" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
@@ -4004,13 +4061,13 @@
         <v>1</v>
       </c>
       <c r="J40" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="L40" t="s">
         <v>240</v>
-      </c>
-      <c r="L40" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
@@ -4042,10 +4099,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K41" t="s">
         <v>242</v>
-      </c>
-      <c r="K41" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
@@ -4071,19 +4128,19 @@
         <v>2006</v>
       </c>
       <c r="H42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18.75" customHeight="1">
@@ -4115,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="18.75" customHeight="1">
@@ -4150,10 +4207,10 @@
         <v>1</v>
       </c>
       <c r="J44" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K44" t="s">
         <v>247</v>
-      </c>
-      <c r="K44" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18.75" customHeight="1">
@@ -4185,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="18.75" customHeight="1">
@@ -4217,13 +4274,13 @@
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J46" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" t="s">
         <v>251</v>
-      </c>
-      <c r="K46" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="18.75" customHeight="1">
@@ -4252,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="18.75" customHeight="1">
@@ -4280,11 +4337,20 @@
       <c r="G48" s="3">
         <v>2019</v>
       </c>
+      <c r="H48" s="20">
+        <v>4</v>
+      </c>
+      <c r="I48" s="21">
+        <v>1</v>
+      </c>
       <c r="J48" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K48" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4306,8 +4372,20 @@
       <c r="G49" s="3">
         <v>2014</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1">
+      <c r="H49" s="20">
+        <v>3</v>
+      </c>
+      <c r="I49" s="21">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4329,8 +4407,20 @@
       <c r="G50" s="3">
         <v>2015</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1">
+      <c r="H50" s="20">
+        <v>2</v>
+      </c>
+      <c r="I50" s="21">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4352,8 +4442,20 @@
       <c r="G51" s="3">
         <v>2014</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1">
+      <c r="H51" s="20">
+        <v>5</v>
+      </c>
+      <c r="I51" s="21">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4375,8 +4477,20 @@
       <c r="G52" s="3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1">
+      <c r="H52" s="20">
+        <v>8</v>
+      </c>
+      <c r="I52" s="21">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4399,7 +4513,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4422,7 +4536,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4445,7 +4559,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4468,7 +4582,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4491,7 +4605,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4514,7 +4628,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4537,7 +4651,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4560,7 +4674,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4583,7 +4697,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4606,7 +4720,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4629,7 +4743,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>

--- a/validation/selectedPapers.xlsx
+++ b/validation/selectedPapers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodol\OneDrive\Documents\SE-ALL\SearchStringAI\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D54B64-F7F2-4DE4-85CC-A62A48761F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04321D3-A3DD-498F-BD7F-9C65850FEA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -2293,6 +2293,142 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>RQ1: How do existing MDS approaches support the development of secure systems? RQ1.1: What is the statistic of security concerns addressed by the MDS approaches?
+RQ1.2: How do the MDS approaches specify or model security requirements together with functional requirements? Is there any tool that supports the modelling process?
+RQ1.3: How are model-to-model transformations (MMTs) used and which MMT engines are used? Is there any tool that supports the transformation process?
+RQ1.4: How are model-to-text transformations (MTTs) used to generate code, including security infrastructure and configuration? Is there any tool that supports the generation process?
+RQ1.5: Which methods were used to evaluate the approaches? What results have been obtained?
+RQ1.6: Which application domains are addressed by the MDS approaches?
+RQ2: What are the current limitations of existing MDS research?
+RQ3: What are open issues to be further investigated?</t>
+  </si>
+  <si>
+    <t>RQ: What are the best practices that can be used to guide the process of designing and implementing software process assessment method?</t>
+  </si>
+  <si>
+    <t>RQ1: What are the different types of app review analyses?
+RQ2: What techniques are used to realize app review analyses?
+RQ3: What software engineering activities are claimed to be supported by analysing app reviews?
+RQ4: How are app review analysis approaches empirically evaluated?
+RQ5: How well do existing app review analysis approaches support software engineers?</t>
+  </si>
+  <si>
+    <t>('app review' OR 'user review' OR 'app store review' OR 'user feedback') AND ('software engineering' OR 'requirement engineering' OR 'software requirement' OR 'software design' OR 'software construction' OR 'software testing' OR 'software maintenance' OR 'software configuration' OR 'software development' OR 'software quality' OR 'software coding') AND ('app store')</t>
+  </si>
+  <si>
+    <t>RQ1. What are the challenges, as identified in the literature, inside an offshore development outsourcing vendor organization regarding their reliability that have a negative effect on outsourcing clients?
+RQ2. How are values allocated to the identified issues, and how are the critical issues categorized and prioritized?</t>
+  </si>
+  <si>
+    <t>(“software outsourcing” OR “software outsourcing development” OR “global software development”) AND (“challenges” OR “obstacles” OR “barriers” OR “hurdles” OR “risks” OR “issues” OR “risk analysis” OR “critical factors”) AND (“vendor OR dealer OR service-provider OR marketer OR trader OR developer OR seller OR salesperson OR merchant OR retailer OR wholesaler”)</t>
+  </si>
+  <si>
+    <t>The overall goal of the research is to improve the software testing process in the context of automotive software engineering. The stages of the research lead up to the goal as follows:
+EBSE Step 1: First, we need to gain an in-depth understanding of challenges and strengths of the testing process to solve the right problems. Case studies are suitable to gain an in-depth understanding of real-world situations and processes [15]. The research questions asked in the case study are:
+•
+RQ1: What are the practices in testing that can be considered as strengths within automotive domain? An inventory of activities that act as strengths in the testing process is provided through this research question. This is extracted from the qualitative data obtained through interviews.
+•
+RQ2: What are the challenges/ bottlenecks identified in testing automotive systems? Lists of challenges or poorly performed practices that act as barriers to incept quality in the testing process are collected to answer this research question.
+EBSE Step 2: In the next step we identified the solutions that would help to address the challenges (EBSE Step 1) related to automotive software testing through a domain specific systematic review. We conducted a domain specific systematic review for multiple reasons. First, the automotive domain has specific characteristics, which distinguishes it from other domains. Hence, findings for solutions in the domain context are more likely to be transferable. Second, given that the overall testing process was studied the scope of the review would not be manageable and we would not be able to provide timely input for the solutions. The results of EBSE Step 2 can be seen as an inventory of solutions based on which improvements can be proposed. Results from EBSE Step 1 related to strengths are added to this inventory. The research question asked in the literature review is:
+•
+RQ3: What improvements for the automotive testing process based on practical experiences were suggested in the literature?
+EBSE Step 3: Based on the detailed definition of strengths and challenges, as well as solutions we used value stream analysis. Value stream analysis was selected as an analytical approach for the following reasons. First, value stream mapping distinguishes between a current state map where the current situation is analyzed with respect to value (what is working well and adds value to the customer) and waste (everything not contribution directly or indirectly to the customer value) and the future state map (desired mapping of the process based on improvements) [14], [16], [17]. The current state map therefore uses the case study as input, while the future state map uses the case study as well as the systematic review in order to map out the desired process representing an evidence-based recommendation to practitioners of how to conduct the testing process. Secondly, value stream mapping has its origin in the automotive domain, which makes its usage in the studied context easy. The following research questions are answered:
+•
+RQ4: What is value and waste in the process considering process activities, strengths and weaknesses identified in EBSE Step 1?
+•
+RQ5: Based on the solutions identified in EBSE Step 2, how should the process represented by the current value stream map be improved?
+EBSE Step 4: In the last step, we reflect on the usage of the evidence-based process in improving software engineering current practices.
+•
+RQ6: What was working well in using the EBSE process with mixed research methods and how can the process be improved?</t>
+  </si>
+  <si>
+    <t>SLR_1	Automotive AND software AND (test OR verification R validation)
+SLR_2	Automotive AND software AND model-based AND tool
+SLR_3	Automotive AND software AND requirements
+SLR_4	Automotive AND software AND (agile OR scrum OR extreme programming OR lean)
+SLR_5	Embedded AND software AND (agile OR scrum OR extreme programming OR lean)</t>
+  </si>
+  <si>
+    <t>RQ1: What are the conceptualized ontologies for the software testing domain? RQ2: What are the most frequently included concepts, their relationships, properties and axioms needed to describe the software testing domain? RQ3: How are existing software testing ontologies classified?</t>
+  </si>
+  <si>
+    <t>("Software Testing" OR "Software Test") AND ("Ontology" OR "Ontologies")</t>
+  </si>
+  <si>
+    <t>RQ1: For which goals has the experience curve effect been studied in software engineering?
+RQ2: In which domain contexts has the experience curve model been applied in software engineering?
+RQ3: What is the reported evidence in the application of the experience curve models in software engineering?
+RQ4: In which software lifecycle activities has the experience curve model been applied?
+RQ5: What are the identified findings with respect to experience curve effect in software engineering?</t>
+  </si>
+  <si>
+    <t>(“experience curve” OR “learning curve”) AND (“software development” OR “software engineering” OR “software process” OR “software project”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQ: What drives IT personnel's intentions to leave their workplace? </t>
+  </si>
+  <si>
+    <t>(“intention to leave” or “intention for turnover” or “intention to quit” or “intention to withdraw” or “intention to stay” or “turnover intention” or “leave intention” or “quit intention” or “stay intention” or “withdrawal intention” or “employee retention” or “employees retention” or “personnel retention” or “worker retention” or “workers retention” or “manager retention” or “managers retention” or “professional retention” or “professionals retention”)
+AND (“IS worker” or “IT worker” or “IS employee” or “IT employee” or “IS personnel” or “IT personnel” or “IS manager” or “IT manager” or “IS professional” or “IT professional” or “IS workforce” or “IT workforce” or “Software engineer” or “software developer” or “software programmer” or “software manager” or “system analyst” or “software designer” or “software project manager”)</t>
+  </si>
+  <si>
+    <t>RQ1
+What approaches exist for performing risk-based testing (RT) and test-based risk analysis (TR)?
+RQ2
+For each of the identified approaches, what is the main goal, and what strategies are used to achieve that goal?
+RQ3
+Are there contexts in which TR and RT are considered to be particularly useful?
+RQ4
+How mature are the approaches, considering degree of formalization, empirical evaluation, and tool support?
+RQ5
+What are the relationships between the approaches, considering citations between the publications?</t>
+  </si>
+  <si>
+    <t>Search string 1: (risk) AND (based OR driven OR oriented) AND (test OR testing OR verification OR checking)
+Search string 2: risk based testing
+Search string 3: risk driven testing
+Search string 4: risk oriented testing
+Search string 5: risk based test
+Search string 6: risk driven test
+Search string 7: risk oriented test
+Search string 8: risk based verification
+Search string 9: risk driven verification
+Search string 10: risk oriented verification
+Search string 11: risk based checking
+Search string 12: risk driven checking
+Search string 13: risk oriented checking
+Search string 14: (test) AND (based OR driven OR oriented) AND (risk) AND (analysis OR assessment OR evaluation)
+Search string 15: test based risk analysis
+Search string 16: test driven risk analysis
+Search string 17: test oriented risk analysis
+Search string 18: test based risk assessment
+Search string 19: test driven risk assessment
+Search string 20: test oriented risk assessment
+Search string 21: test based risk evaluation
+Search string 22: test driven risk evaluation
+Search string 23: test oriented risk evaluation</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>Objective The objective is to review and to bring forth a state of art of the current approaches for the combined use of risk analysis and testing, based on publications related to this topic.</t>
+  </si>
+  <si>
+    <t>An essential requirement is the integration of user experience methods in Agile software development. Based on this, the development of positive user experience must be managed. We understand management in general as a combination of a goal, a strategy, and resources. When applied to UX, user experience management consists of a UX goal, a UX strategy, and UX resources.</t>
+  </si>
+  <si>
+    <t>(agile OR kanban OR scrum OR lean OR “extreme programming” OR “design thinking”)
+AND
+(“user experience” OR ux OR usability OR hcd OR hci OR hmi OR ucd)</t>
+  </si>
+  <si>
+    <t>RQ1: Which approaches are suitable for UX management in an agile context?
+RQ2: What conclusions can be deducted from the studies found?
+RQ3: How can user experience in Agile software development be planned and controlled for a product backlog item or a requirement before the development?
+RQ4: What retrospective proposals exist to improve the efficiency and effectiveness of the user experience process in terms of Agile software development?</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2489,13 +2625,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2801,10 +2940,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2820,7 +2959,7 @@
     <col min="11" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2857,8 +2996,11 @@
       <c r="L1" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M1" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2881,7 +3023,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2910,7 +3052,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2945,7 +3087,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2974,7 +3116,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2997,7 +3139,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3026,7 +3168,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3058,7 +3200,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3093,7 +3235,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3122,7 +3264,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3157,7 +3299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3192,7 +3334,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3227,7 +3369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3262,7 +3404,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3297,7 +3439,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4337,10 +4479,10 @@
       <c r="G48" s="3">
         <v>2019</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="17">
         <v>4</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="9">
         <v>1</v>
       </c>
       <c r="J48" s="6" t="s">
@@ -4350,7 +4492,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4372,10 +4514,10 @@
       <c r="G49" s="3">
         <v>2014</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="17">
         <v>3</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="9">
         <v>1</v>
       </c>
       <c r="J49" s="6" t="s">
@@ -4385,7 +4527,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4407,10 +4549,10 @@
       <c r="G50" s="3">
         <v>2015</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="17">
         <v>2</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="9">
         <v>1</v>
       </c>
       <c r="J50" s="6" t="s">
@@ -4420,7 +4562,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4442,10 +4584,10 @@
       <c r="G51" s="3">
         <v>2014</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="17">
         <v>5</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="9">
         <v>1</v>
       </c>
       <c r="J51" s="6" t="s">
@@ -4455,7 +4597,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4477,20 +4619,20 @@
       <c r="G52" s="3">
         <v>2018</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="17">
         <v>8</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="9">
         <v>1</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="K52" s="20" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4512,8 +4654,17 @@
       <c r="G53" s="3">
         <v>2014</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H53" s="17">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>235</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="18.75" customHeight="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4535,8 +4686,17 @@
       <c r="G54" s="3">
         <v>2011</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H54" s="21">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>235</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="18.75" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4558,8 +4718,20 @@
       <c r="G55" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H55" s="21">
+        <v>5</v>
+      </c>
+      <c r="I55" s="22">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="18.75" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4581,8 +4753,20 @@
       <c r="G56" s="3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H56" s="21">
+        <v>2</v>
+      </c>
+      <c r="I56" s="22">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="18.75" customHeight="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4604,8 +4788,20 @@
       <c r="G57" s="3">
         <v>2012</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H57" s="21">
+        <v>6</v>
+      </c>
+      <c r="I57" s="22">
+        <v>6</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18.75" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4627,8 +4823,20 @@
       <c r="G58" s="3">
         <v>2017</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H58" s="21">
+        <v>3</v>
+      </c>
+      <c r="I58" s="22">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="18.75" customHeight="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4650,8 +4858,20 @@
       <c r="G59" s="3">
         <v>2013</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H59" s="21">
+        <v>5</v>
+      </c>
+      <c r="I59" s="22">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="18.75" customHeight="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4673,8 +4893,20 @@
       <c r="G60" s="3">
         <v>2010</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H60" s="21">
+        <v>1</v>
+      </c>
+      <c r="I60" s="22">
+        <v>1</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18.75" customHeight="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4696,8 +4928,23 @@
       <c r="G61" s="3">
         <v>2013</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H61" s="21">
+        <v>5</v>
+      </c>
+      <c r="I61" s="22">
+        <v>23</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="M61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="18.75" customHeight="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4719,8 +4966,23 @@
       <c r="G62" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1">
+      <c r="H62" s="21">
+        <v>4</v>
+      </c>
+      <c r="I62" s="22">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="M62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="18.75" customHeight="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4743,7 +5005,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
